--- a/x-db/db-schema/db-schema-v1.xlsx
+++ b/x-db/db-schema/db-schema-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jag/jag/JUNIVERSE/WS/jag-saas/db/v1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jag/jag/JUNIVERSE/WS/jag-saas/x-db/db-schema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB4E5DBB-C15F-7243-8B12-C889A166FD06}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE8F0E85-1052-E44D-A9B3-E0A9C2EB0F24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{4DA704A8-A7B7-3846-9C2D-57559A1D315A}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="27840" windowHeight="17540" activeTab="2" xr2:uid="{4DA704A8-A7B7-3846-9C2D-57559A1D315A}"/>
   </bookViews>
   <sheets>
     <sheet name="STUF" sheetId="22" r:id="rId1"/>
@@ -1844,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397F33F3-CA38-AD40-8919-A99A26EA6D78}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
